--- a/data/backend/backend_structure.xlsx
+++ b/data/backend/backend_structure.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data1" r:id="rId3" sheetId="1"/>
-    <sheet name="data2" r:id="rId4" sheetId="2"/>
+    <sheet name="feignRelations" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Source Service Name</t>
   </si>
@@ -24,16 +23,13 @@
     <t>Source Method Signature</t>
   </si>
   <si>
-    <t>Target Microservice Name</t>
+    <t>Target Service Name</t>
   </si>
   <si>
     <t>Target Interface Name</t>
   </si>
   <si>
     <t>Target Operation Signature</t>
-  </si>
-  <si>
-    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -68,79 +64,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/backend_structure.xlsx
+++ b/data/backend/backend_structure.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="feignRelations" r:id="rId3" sheetId="1"/>
+    <sheet name="kafkaRelations" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>Source Service Name</t>
   </si>
@@ -30,6 +31,231 @@
   </si>
   <si>
     <t>Target Operation Signature</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Target Class Name</t>
+  </si>
+  <si>
+    <t>Target Method Signature</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>product-service</t>
+  </si>
+  <si>
+    <t>org.andante.microphones.kafka.producer.KafkaMicrophoneProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.microphones.event.MicrophoneEvent)</t>
+  </si>
+  <si>
+    <t>activity-service</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaMicrophoneConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.microphones.event.MicrophoneEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Microphone.json</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>org.andante.subwoofers.kafka.producer.KafkaSubwoofersProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.subwoofers.event.SubwoofersVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaSubwoofersVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.subwoofers.event.SubwoofersVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Subwoofers.Variant.json</t>
+  </si>
+  <si>
+    <t>org.andante.product.kafka.producer.KafkaProductProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.product.event.CommentEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaProductCommentConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.product.event.CommentEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Comment.json</t>
+  </si>
+  <si>
+    <t>org.andante.amplifiers.kafka.producer.KafkaAmplifierProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.amplifiers.event.AmplifierEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaAmplifiersConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.amplifiers.event.AmplifierEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Amplifier.json</t>
+  </si>
+  <si>
+    <t>org.andante.speakers.kafka.producer.KafkaSpeakersProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.speakers.event.SpeakersVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaSpeakersVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.speakers.event.SpeakersVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Speakers.Variant.json</t>
+  </si>
+  <si>
+    <t>org.andante.headphones.kafka.producer.KafkaHeadphonesProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.headphones.event.HeadphonesEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaHeadphonesConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.headphones.event.HeadphonesEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Headphones.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.speakers.event.SpeakersEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaSpeakersConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.speakers.event.SpeakersEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Speakers.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.headphones.event.HeadphonesVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaHeadphonesVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.headphones.event.HeadphonesVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Headphones.Variant.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.microphones.event.MicrophoneVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaMicrophoneVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.microphones.event.MicrophoneVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Microphone.Variant.json</t>
+  </si>
+  <si>
+    <t>order-service</t>
+  </si>
+  <si>
+    <t>org.andante.orders.kafka.producer.KafkaOrderProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.orders.event.OrderEntryEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaOrderEntryConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.orders.event.OrderEntryEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Order.OrderEntry.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.orders.event.ProductOrderEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.product.kafka.consumer.KafkaProductOrderConsumer</t>
+  </si>
+  <si>
+    <t>listen(org.andante.orders.event.ProductOrderEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Order.json</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaSubwoofersConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.subwoofers.event.SubwoofersEvent)</t>
+  </si>
+  <si>
+    <t>publish(org.andante.orders.event.OrderEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.gramophones.kafka.producer.KafkaGramophoneProducer</t>
+  </si>
+  <si>
+    <t>publish(org.andante.gramophones.event.GramophoneVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaGramophoneVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.gramophones.event.GramophoneVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Gramophone.Variant.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.amplifiers.event.AmplifierVariantEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaAmplifiersVariantConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.amplifiers.event.AmplifierVariantEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Amplifier.Variant.json</t>
+  </si>
+  <si>
+    <t>publish(org.andante.gramophones.event.GramophoneEvent)</t>
+  </si>
+  <si>
+    <t>org.andante.activity.kafka.consumer.KafkaGramophonesConsumer</t>
+  </si>
+  <si>
+    <t>listen(java.lang.String, org.andante.gramophones.event.GramophoneEvent)</t>
+  </si>
+  <si>
+    <t>event.Internal.Product.Gramophone.json</t>
   </si>
 </sst>
 </file>
@@ -74,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,6 +325,464 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
